--- a/CHEFFERIE DE PROJET BNPPF/EXCEL BNPPF/WBS/Projection Sprint 11 et 12.xlsx
+++ b/CHEFFERIE DE PROJET BNPPF/EXCEL BNPPF/WBS/Projection Sprint 11 et 12.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327" codeName="{37A63EE7-654F-3FA9-A528-636911D70600}"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT_REPO\FULLSTACK\my-chess-game\CHEFFERIE DE PROJET BNPPF\EXCEL BNPPF\WBS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{891159C3-0405-479F-B054-0CBB17A9BD64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A43086C-48AD-45B5-952D-A87CF6E2EAE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sprint 11" sheetId="2" r:id="rId1"/>
+    <sheet name="Taux de réalisation" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="46">
   <si>
     <t>N° sprint</t>
   </si>
@@ -58,13 +59,131 @@
   </si>
   <si>
     <t>Taux de réalisation des engagements</t>
+  </si>
+  <si>
+    <t>Sylvain CAILLEAU</t>
+  </si>
+  <si>
+    <t>Ramii BEL HADJ</t>
+  </si>
+  <si>
+    <t>Lamine BENFRADJ</t>
+  </si>
+  <si>
+    <t>Mathieu RALAMBOSON</t>
+  </si>
+  <si>
+    <t>Benoit GALLOU</t>
+  </si>
+  <si>
+    <t>Dorian DAUPHIN</t>
+  </si>
+  <si>
+    <t>Alpha  BAH</t>
+  </si>
+  <si>
+    <t>Baptiste PARENT</t>
+  </si>
+  <si>
+    <t>Samira BOUDRIOUA</t>
+  </si>
+  <si>
+    <t>Equpe TUNISIE</t>
+  </si>
+  <si>
+    <t>Nicolas ROUILLE</t>
+  </si>
+  <si>
+    <t>Christian QUILLOT</t>
+  </si>
+  <si>
+    <t>Sérigne SOUMARE</t>
+  </si>
+  <si>
+    <t>Chef de projet</t>
+  </si>
+  <si>
+    <t>Architecte / Dev backend Snr</t>
+  </si>
+  <si>
+    <t>Dev Backend Jnr</t>
+  </si>
+  <si>
+    <t>Dev Backend Snr</t>
+  </si>
+  <si>
+    <t>Dev Frontend Jnr</t>
+  </si>
+  <si>
+    <t>Ergonome</t>
+  </si>
+  <si>
+    <t>Technicien Informatique</t>
+  </si>
+  <si>
+    <t>DSI</t>
+  </si>
+  <si>
+    <t>Ingénieur système et réseau</t>
+  </si>
+  <si>
+    <t>Cosultant / Formateur</t>
+  </si>
+  <si>
+    <t>Dev backend</t>
+  </si>
+  <si>
+    <t>Assistant Chef de projet</t>
+  </si>
+  <si>
+    <t>Interne - CDI</t>
+  </si>
+  <si>
+    <t>Externe - SHS France</t>
+  </si>
+  <si>
+    <t>Interne - Apprenti</t>
+  </si>
+  <si>
+    <t>Interne - CDD</t>
+  </si>
+  <si>
+    <t>Interne</t>
+  </si>
+  <si>
+    <t>Externe - BEWYKS</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>Non présent</t>
+  </si>
+  <si>
+    <t>Ecole</t>
+  </si>
+  <si>
+    <t>Florent Bernard</t>
+  </si>
+  <si>
+    <t>Lead Tech</t>
+  </si>
+  <si>
+    <t>US 115</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="[$-40C]mmmm\-yy;@"/>
+    <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -78,6 +197,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Candara"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Candara"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -87,7 +219,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -95,18 +227,78 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="gray125">
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
@@ -175,7 +367,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$1</c:f>
+              <c:f>'Taux de réalisation'!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -205,7 +397,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$5</c:f>
+              <c:f>'Taux de réalisation'!$A$2:$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -225,7 +417,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$5</c:f>
+              <c:f>'Taux de réalisation'!$D$2:$D$5</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1035,7 +1227,7 @@
     <tableColumn id="1" xr3:uid="{3B46A985-422B-4575-9092-6F159A07E347}" name="N° sprint"/>
     <tableColumn id="2" xr3:uid="{7C697C96-CB84-4889-A3D0-314AC3A79FCD}" name="Capacité (jours)"/>
     <tableColumn id="3" xr3:uid="{72BE3C53-FA22-4102-831B-59DE35464EBA}" name="Vélocité"/>
-    <tableColumn id="4" xr3:uid="{D2678242-3363-4F32-AC48-AD25279079DA}" name="Taux de réalisation des engagements" dataDxfId="0">
+    <tableColumn id="4" xr3:uid="{D2678242-3363-4F32-AC48-AD25279079DA}" name="Taux de réalisation des engagements" dataDxfId="1">
       <calculatedColumnFormula>Tableau1[[#This Row],[Vélocité]]/Tableau1[[#This Row],[Capacité (jours)]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1305,10 +1497,828 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9338140-B22A-46D2-9FE5-FD7C2177E8E8}">
+  <sheetPr codeName="Feuil1"/>
+  <dimension ref="A1:S18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18:C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="30.88671875" style="12" customWidth="1"/>
+    <col min="2" max="2" width="14" style="12" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" style="13" customWidth="1"/>
+    <col min="4" max="17" width="21.6640625" style="13" customWidth="1"/>
+    <col min="18" max="18" width="21.6640625" style="11" customWidth="1"/>
+    <col min="19" max="19" width="23.33203125" style="11" customWidth="1"/>
+    <col min="20" max="16384" width="11.5546875" style="11"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2">
+        <v>45047</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+    </row>
+    <row r="2" spans="1:19" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="2"/>
+      <c r="B2" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="7"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10">
+        <f>SUM(D5:D18)</f>
+        <v>10</v>
+      </c>
+      <c r="E4" s="10">
+        <f>SUM(E5:E18)</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="10">
+        <f>SUM(F5:F18)</f>
+        <v>0</v>
+      </c>
+      <c r="G4" s="10">
+        <f>SUM(G5:G18)</f>
+        <v>7</v>
+      </c>
+      <c r="H4" s="10">
+        <f>SUM(H5:H18)</f>
+        <v>10</v>
+      </c>
+      <c r="I4" s="10">
+        <f>SUM(I5:I18)</f>
+        <v>10</v>
+      </c>
+      <c r="J4" s="10">
+        <f>SUM(J5:J18)</f>
+        <v>0</v>
+      </c>
+      <c r="K4" s="10">
+        <f>SUM(K5:K18)</f>
+        <v>10</v>
+      </c>
+      <c r="L4" s="10">
+        <f>SUM(L5:L18)</f>
+        <v>10</v>
+      </c>
+      <c r="M4" s="10">
+        <f>SUM(M5:M18)</f>
+        <v>40</v>
+      </c>
+      <c r="N4" s="10">
+        <f>SUM(N5:N18)</f>
+        <v>5.5</v>
+      </c>
+      <c r="O4" s="10">
+        <f>SUM(O5:O18)</f>
+        <v>0</v>
+      </c>
+      <c r="P4" s="10">
+        <f>SUM(P5:P18)</f>
+        <v>0</v>
+      </c>
+      <c r="Q4" s="10">
+        <f>SUM(Q5:Q18)</f>
+        <v>0</v>
+      </c>
+      <c r="R4" s="10">
+        <f>SUM(R5:R18)</f>
+        <v>0</v>
+      </c>
+      <c r="S4" s="10">
+        <f>SUM(S5:S18)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A5" s="12">
+        <v>45058</v>
+      </c>
+      <c r="D5" s="13">
+        <v>1</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="H5" s="13">
+        <v>1</v>
+      </c>
+      <c r="I5" s="13">
+        <v>1</v>
+      </c>
+      <c r="J5" s="13">
+        <v>0</v>
+      </c>
+      <c r="K5" s="13">
+        <v>1</v>
+      </c>
+      <c r="L5" s="13">
+        <v>1</v>
+      </c>
+      <c r="M5" s="13">
+        <v>4</v>
+      </c>
+      <c r="N5" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="O5" s="13">
+        <v>0</v>
+      </c>
+      <c r="P5" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="13">
+        <v>0</v>
+      </c>
+      <c r="R5" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="S5" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A6" s="12">
+        <v>45059</v>
+      </c>
+      <c r="D6" s="13">
+        <v>1</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="13">
+        <v>1</v>
+      </c>
+      <c r="H6" s="13">
+        <v>1</v>
+      </c>
+      <c r="I6" s="13">
+        <v>1</v>
+      </c>
+      <c r="J6" s="13">
+        <v>0</v>
+      </c>
+      <c r="K6" s="13">
+        <v>1</v>
+      </c>
+      <c r="L6" s="13">
+        <v>1</v>
+      </c>
+      <c r="M6" s="13">
+        <v>4</v>
+      </c>
+      <c r="N6" s="13">
+        <v>0</v>
+      </c>
+      <c r="O6" s="13">
+        <v>0</v>
+      </c>
+      <c r="P6" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="13">
+        <v>0</v>
+      </c>
+      <c r="R6" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="S6" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A7" s="12">
+        <v>45060</v>
+      </c>
+      <c r="D7" s="13">
+        <v>1</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="13">
+        <v>1</v>
+      </c>
+      <c r="H7" s="13">
+        <v>1</v>
+      </c>
+      <c r="I7" s="13">
+        <v>1</v>
+      </c>
+      <c r="J7" s="13">
+        <v>0</v>
+      </c>
+      <c r="K7" s="13">
+        <v>1</v>
+      </c>
+      <c r="L7" s="13">
+        <v>1</v>
+      </c>
+      <c r="M7" s="13">
+        <v>4</v>
+      </c>
+      <c r="N7" s="13">
+        <v>0</v>
+      </c>
+      <c r="O7" s="13">
+        <v>0</v>
+      </c>
+      <c r="P7" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="13">
+        <v>0</v>
+      </c>
+      <c r="R7" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="S7" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A8" s="12">
+        <v>45061</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="14"/>
+      <c r="D8" s="13">
+        <v>1</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" s="13">
+        <v>1</v>
+      </c>
+      <c r="H8" s="13">
+        <v>1</v>
+      </c>
+      <c r="I8" s="13">
+        <v>1</v>
+      </c>
+      <c r="J8" s="13">
+        <v>0</v>
+      </c>
+      <c r="K8" s="13">
+        <v>1</v>
+      </c>
+      <c r="L8" s="13">
+        <v>1</v>
+      </c>
+      <c r="M8" s="13">
+        <v>4</v>
+      </c>
+      <c r="N8" s="13">
+        <v>1</v>
+      </c>
+      <c r="O8" s="13">
+        <v>0</v>
+      </c>
+      <c r="P8" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="13">
+        <v>0</v>
+      </c>
+      <c r="R8" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="S8" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A9" s="12">
+        <v>45062</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A10" s="12">
+        <v>45063</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A11" s="12">
+        <v>45064</v>
+      </c>
+      <c r="D11" s="13">
+        <v>1</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="H11" s="13">
+        <v>1</v>
+      </c>
+      <c r="I11" s="13">
+        <v>1</v>
+      </c>
+      <c r="J11" s="13">
+        <v>0</v>
+      </c>
+      <c r="K11" s="13">
+        <v>1</v>
+      </c>
+      <c r="L11" s="13">
+        <v>1</v>
+      </c>
+      <c r="M11" s="13">
+        <v>4</v>
+      </c>
+      <c r="N11" s="13">
+        <v>1</v>
+      </c>
+      <c r="O11" s="13">
+        <v>0</v>
+      </c>
+      <c r="P11" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="13">
+        <v>0</v>
+      </c>
+      <c r="R11" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="S11" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A12" s="12">
+        <v>45065</v>
+      </c>
+      <c r="D12" s="13">
+        <v>1</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="H12" s="13">
+        <v>1</v>
+      </c>
+      <c r="I12" s="13">
+        <v>1</v>
+      </c>
+      <c r="J12" s="13">
+        <v>0</v>
+      </c>
+      <c r="K12" s="13">
+        <v>1</v>
+      </c>
+      <c r="L12" s="13">
+        <v>1</v>
+      </c>
+      <c r="M12" s="13">
+        <v>4</v>
+      </c>
+      <c r="N12" s="13">
+        <v>1</v>
+      </c>
+      <c r="O12" s="13">
+        <v>0</v>
+      </c>
+      <c r="P12" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="13">
+        <v>0</v>
+      </c>
+      <c r="R12" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="S12" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A13" s="12">
+        <v>45066</v>
+      </c>
+      <c r="D13" s="13">
+        <v>1</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" s="13">
+        <v>1</v>
+      </c>
+      <c r="H13" s="13">
+        <v>1</v>
+      </c>
+      <c r="I13" s="13">
+        <v>1</v>
+      </c>
+      <c r="J13" s="13">
+        <v>0</v>
+      </c>
+      <c r="K13" s="13">
+        <v>1</v>
+      </c>
+      <c r="L13" s="13">
+        <v>1</v>
+      </c>
+      <c r="M13" s="13">
+        <v>4</v>
+      </c>
+      <c r="N13" s="13">
+        <v>1</v>
+      </c>
+      <c r="O13" s="13">
+        <v>0</v>
+      </c>
+      <c r="P13" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="13">
+        <v>0</v>
+      </c>
+      <c r="R13" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="S13" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A14" s="12">
+        <v>45067</v>
+      </c>
+      <c r="D14" s="13">
+        <v>1</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="G14" s="13">
+        <v>1</v>
+      </c>
+      <c r="H14" s="13">
+        <v>1</v>
+      </c>
+      <c r="I14" s="13">
+        <v>1</v>
+      </c>
+      <c r="J14" s="13">
+        <v>0</v>
+      </c>
+      <c r="K14" s="13">
+        <v>1</v>
+      </c>
+      <c r="L14" s="13">
+        <v>1</v>
+      </c>
+      <c r="M14" s="13">
+        <v>4</v>
+      </c>
+      <c r="N14" s="13">
+        <v>0</v>
+      </c>
+      <c r="O14" s="13">
+        <v>0</v>
+      </c>
+      <c r="P14" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="13">
+        <v>0</v>
+      </c>
+      <c r="R14" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="S14" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A15" s="12">
+        <v>45068</v>
+      </c>
+      <c r="D15" s="13">
+        <v>1</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="G15" s="13">
+        <v>1</v>
+      </c>
+      <c r="H15" s="13">
+        <v>1</v>
+      </c>
+      <c r="I15" s="13">
+        <v>1</v>
+      </c>
+      <c r="J15" s="13">
+        <v>0</v>
+      </c>
+      <c r="K15" s="13">
+        <v>1</v>
+      </c>
+      <c r="L15" s="13">
+        <v>1</v>
+      </c>
+      <c r="M15" s="13">
+        <v>4</v>
+      </c>
+      <c r="N15" s="13">
+        <v>0</v>
+      </c>
+      <c r="O15" s="13">
+        <v>0</v>
+      </c>
+      <c r="P15" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="13">
+        <v>0</v>
+      </c>
+      <c r="R15" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="S15" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A16" s="12">
+        <v>45069</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A17" s="12">
+        <v>45070</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A18" s="12">
+        <v>45071</v>
+      </c>
+      <c r="D18" s="13">
+        <v>1</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="G18" s="13">
+        <v>1</v>
+      </c>
+      <c r="H18" s="13">
+        <v>1</v>
+      </c>
+      <c r="I18" s="13">
+        <v>1</v>
+      </c>
+      <c r="J18" s="13">
+        <v>0</v>
+      </c>
+      <c r="K18" s="13">
+        <v>1</v>
+      </c>
+      <c r="L18" s="13">
+        <v>1</v>
+      </c>
+      <c r="M18" s="13">
+        <v>4</v>
+      </c>
+      <c r="N18" s="13">
+        <v>1</v>
+      </c>
+      <c r="O18" s="13">
+        <v>0</v>
+      </c>
+      <c r="P18" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="13">
+        <v>0</v>
+      </c>
+      <c r="R18" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="S18" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B8:C8"/>
+  </mergeCells>
+  <conditionalFormatting sqref="A5:XFD7 A9:XFD18 A8:B8 D8:XFD8">
+    <cfRule type="expression" dxfId="0" priority="4">
+      <formula>OR(WEEKDAY($A5)=1,WEEKDAY($A5)=7)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Feuil2"/>
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
